--- a/static/tmp/statistic.xlsx
+++ b/static/tmp/statistic.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>coffee_test</t>
   </si>
@@ -45,22 +45,13 @@
     <t>ФИО водителя</t>
   </si>
   <si>
+    <t>TESTPHONE2</t>
+  </si>
+  <si>
+    <t>Не определен</t>
+  </si>
+  <si>
     <t>TESTPHONE</t>
-  </si>
-  <si>
-    <t>Не определен</t>
-  </si>
-  <si>
-    <t>academ</t>
-  </si>
-  <si>
-    <t>Отменен</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>Не распределен</t>
   </si>
 </sst>
 </file>
@@ -99,7 +90,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -107,9 +98,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="14">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="1">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -441,7 +429,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -498,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>42475.733923611115</v>
+        <v>42494.78645833333</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>42475.7281712963</v>
+        <v>42494.77929398148</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>42475.72790509259</v>
+        <v>42494.77519675926</v>
       </c>
     </row>
     <row r="6">
@@ -531,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>42475.718923611115</v>
+        <v>42494.77375</v>
       </c>
     </row>
     <row r="7">
@@ -542,150 +530,150 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>42475.71675925926</v>
+        <v>42494.771006944444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>42475.716516203705</v>
+        <v>42494.76813657407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>42475.713738425926</v>
+        <v>42494.760150462964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>42475.63935185185</v>
+        <v>42494.75877314815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>42475.637719907405</v>
+        <v>42494.75837962963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>42475.63630787037</v>
+        <v>42494.727685185186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>42475.63209490741</v>
+        <v>42494.71986111111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>42475.631261574075</v>
+        <v>42494.71943287037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>42475.630381944444</v>
+        <v>42494.68225694445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>42475.62278935185</v>
+        <v>42494.681701388894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>42475.61666666667</v>
+        <v>42494.676574074074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>42475.58185185185</v>
+        <v>42494.66756944444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>42475.5812037037</v>
+        <v>42494.66334490741</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>42475.58070601852</v>
+        <v>42494.65613425926</v>
       </c>
     </row>
     <row r="21">
@@ -696,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>42475.58050925926</v>
+        <v>42491.64486111111</v>
       </c>
     </row>
     <row r="22">
@@ -707,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>42475.58021990741</v>
+        <v>42491.64407407407</v>
       </c>
     </row>
     <row r="23">
@@ -718,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>42475.571284722224</v>
+        <v>42491.64150462963</v>
       </c>
     </row>
     <row r="24">
@@ -729,445 +717,217 @@
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>42475.569016203706</v>
+        <v>42489.67324074074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>42475.56297453704</v>
+        <v>42489.66369212963</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>42475.56003472222</v>
+        <v>42489.64840277778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="2">
-        <v>42475.558495370366</v>
+        <v>42489.61518518519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="2">
-        <v>42475.55482638889</v>
+        <v>42487.70224537037</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="2">
-        <v>42475.55435185185</v>
+        <v>42487.672685185185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <v>42475.55190972222</v>
+        <v>42487.67225694444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2">
-        <v>42475.53964120371</v>
+        <v>42487.67186342593</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>42475.53233796296</v>
+        <v>42487.67119212963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="2">
-        <v>42475.51814814815</v>
+        <v>42487.67053240741</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>42474.772418981476</v>
+        <v>42487.66930555555</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="2">
-        <v>42474.77145833333</v>
+        <v>42487.668587962966</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="2">
-        <v>42472.674988425926</v>
+        <v>42487.667962962965</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="2">
-        <v>42472.6725</v>
+        <v>42487.665856481486</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="2">
-        <v>42472.66765046296</v>
+        <v>42487.65766203703</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="2">
-        <v>42472.66201388889</v>
+        <v>42487.655752314815</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2">
-        <v>42472.6253125</v>
+        <v>42487.654178240744</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42487.65193287037</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42487.614745370374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2">
-        <v>42431.75974537037</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2">
-        <v>42431.71236111112</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s"/>
-      <c r="F44" s="1" t="s"/>
-      <c r="G44" s="1" t="s"/>
-      <c r="H44" s="1" t="s"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2">
-        <v>42431.68135416666</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s"/>
-      <c r="F45" s="1" t="s"/>
-      <c r="G45" s="1" t="s"/>
-      <c r="H45" s="1" t="s"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2">
-        <v>42431.65798611111</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s"/>
-      <c r="F48" s="1" t="s"/>
-      <c r="G48" s="1" t="s"/>
-      <c r="H48" s="1" t="s"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2">
-        <v>42431.653344907405</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s"/>
-      <c r="F49" s="1" t="s"/>
-      <c r="G49" s="1" t="s"/>
-      <c r="H49" s="1" t="s"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2">
-        <v>42431.65104166667</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s"/>
-      <c r="F50" s="1" t="s"/>
-      <c r="G50" s="1" t="s"/>
-      <c r="H50" s="1" t="s"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2">
-        <v>42431.649629629625</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s"/>
-      <c r="F51" s="1" t="s"/>
-      <c r="G51" s="1" t="s"/>
-      <c r="H51" s="1" t="s"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="2">
-        <v>42431.64957175926</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="2">
-        <v>42431.63471064815</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="2">
-        <v>42431.63443287037</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="2">
-        <v>42431.63217592593</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2">
-        <v>42431.62210648148</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s"/>
-      <c r="F56" s="1" t="s"/>
-      <c r="G56" s="1" t="s"/>
-      <c r="H56" s="1" t="s"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2">
-        <v>42431.61777777778</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s"/>
-      <c r="F57" s="1" t="s"/>
-      <c r="G57" s="1" t="s"/>
-      <c r="H57" s="1" t="s"/>
+        <v>42487.614699074074</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/static/tmp/statistic.xlsx
+++ b/static/tmp/statistic.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="bot" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="quests" sheetId="2" r:id="rId2" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>coffee_test</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>ФИО водителя</t>
+  </si>
+  <si>
+    <t>TESTPHONE</t>
+  </si>
+  <si>
+    <t>Не определен</t>
+  </si>
+  <si>
+    <t>TESTPHONE2</t>
   </si>
 </sst>
 </file>
@@ -81,11 +91,14 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="14">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -417,7 +430,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -466,6 +479,479 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42507.720659722225</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42507.7202662037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42494.91145833333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42494.90429398148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42494.90019675926</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42494.89875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42494.896006944444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42494.89313657407</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42494.885150462964</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42494.88377314815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42494.88337962963</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42494.852685185186</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42494.84486111111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42494.84443287037</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42494.80725694445</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42494.806701388894</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42494.801574074074</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42494.79256944444</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42494.78834490741</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42494.78113425926</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42491.76986111111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42491.76907407407</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42491.76650462963</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42489.79824074074</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42489.78869212963</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42489.77340277778</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42489.74018518519</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42487.82724537037</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42487.797685185185</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42487.79725694444</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42487.79686342593</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42487.79619212963</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42487.79553240741</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42487.79430555555</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42487.793587962966</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42487.792962962965</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42487.790856481486</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42487.78266203703</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42487.780752314815</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42487.779178240744</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42487.77693287037</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42487.739745370374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2">
+        <v>42487.739699074074</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -475,4 +961,28 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>